--- a/data/trans_camb/IP16A10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -2,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; -1,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-39,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,58; 322,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-3,5</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 0,0</t>
+          <t>0,0; 9,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,73; 4,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,94; -2,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 0,0</t>
+          <t>-4,43; 4,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,0</t>
+          <t>-7,88; -1,34</t>
         </is>
       </c>
     </row>
@@ -989,27 +989,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-39,75%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-3,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,58; 322,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,7</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; 5,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; 14,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,35; -4,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,82; -4,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,86; -0,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,8; 2,17</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,8%</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -22,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,19 +1203,19 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,35; 11,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,62; 80,73</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-12,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-13,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-1,06</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 5,06</t>
+          <t>-8,95; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 14,72</t>
+          <t>-8,97; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,82; -4,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,86; -0,53</t>
+          <t>-5,35; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 2,17</t>
+          <t>-6,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-24,14%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>63,62%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-83,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-88,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-68,09%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-53,8%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-94,35; 11,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-89,62; 80,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 7,11</t>
+          <t>-8,39; 7,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 0,0</t>
+          <t>-13,89; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,41</t>
+          <t>0,0; 15,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 3,72</t>
+          <t>-3,82; 3,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 4,81</t>
+          <t>-3,12; 4,87</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,01</t>
+          <t>0,0; 8,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 4,47</t>
+          <t>-11,08; 4,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -2,62</t>
+          <t>-15,21; -2,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,02</t>
+          <t>-4,65; 4,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,88; -1,34</t>
+          <t>-7,6; -1,32</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 271,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,58; 322,46</t>
+          <t>-81,27; 316,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 5,06</t>
+          <t>-7,72; 5,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 14,72</t>
+          <t>-5,2; 12,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -4,11</t>
+          <t>-26,76; -4,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,82; -4,04</t>
+          <t>-27,96; -4,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,86; -0,53</t>
+          <t>-13,52; -0,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 2,17</t>
+          <t>-11,73; 1,36</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,98</t>
+          <t>-100,0; -5,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 56,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-94,35; 11,8</t>
+          <t>-93,86; 22,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-89,62; 80,73</t>
+          <t>-88,17; 65,45</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 0,0</t>
+          <t>-10,67; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 0,0</t>
+          <t>-9,05; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 0,0</t>
+          <t>-4,76; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,0</t>
+          <t>-5,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,8</t>
+          <t>-2,3; 2,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,79</t>
+          <t>-3,2; 1,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -0,62</t>
+          <t>-7,48; -0,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,43; -1,65</t>
+          <t>-8,24; -1,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,28</t>
+          <t>-3,87; 0,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,32; -0,46</t>
+          <t>-4,35; -0,39</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-77,32; 420,35</t>
+          <t>-81,09; 487,29</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 498,96</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-90,2; 0,29</t>
+          <t>-91,3; 9,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-95,53; -26,48</t>
+          <t>-98,25; -36,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-76,16; 19,48</t>
+          <t>-76,51; 31,48</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-87,83; -7,41</t>
+          <t>-88,56; -6,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 7,02</t>
+          <t>-7,58; 7,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 0,0</t>
+          <t>-11,38; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,18</t>
+          <t>0,0; 14,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,77</t>
+          <t>-4,29; 3,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,87</t>
+          <t>-3,2; 4,74</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,86</t>
+          <t>0,0; 7,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 4,14</t>
+          <t>-10,45; 4,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,21; -2,75</t>
+          <t>-15,34; -2,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,18</t>
+          <t>-4,54; 4,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -1,32</t>
+          <t>-7,91; -1,32</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 271,86</t>
+          <t>-100,0; 229,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,27; 316,21</t>
+          <t>-82,95; 322,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 5,32</t>
+          <t>-8,23; 5,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 12,6</t>
+          <t>-5,55; 12,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,76; -4,0</t>
+          <t>-26,16; -3,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,96; -4,74</t>
+          <t>-27,36; -4,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,52; -0,86</t>
+          <t>-12,87; -0,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 1,36</t>
+          <t>-11,03; 2,25</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -5,12</t>
+          <t>-100,0; 12,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 56,54</t>
+          <t>-100,0; 34,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-93,86; 22,33</t>
+          <t>-93,74; 2,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-88,17; 65,45</t>
+          <t>-90,45; 79,29</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 0,0</t>
+          <t>-8,81; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 0,0</t>
+          <t>-9,01; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,0</t>
+          <t>-5,71; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 0,0</t>
+          <t>-4,34; 0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,5</t>
+          <t>-2,48; 2,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,85</t>
+          <t>-3,25; 1,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -0,49</t>
+          <t>-7,51; -0,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -1,64</t>
+          <t>-7,91; -1,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,44</t>
+          <t>-3,95; 0,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,39</t>
+          <t>-4,4; -0,67</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-81,09; 487,29</t>
+          <t>-76,02; 528,15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 498,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-91,3; 9,36</t>
+          <t>-91,74; -0,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-98,25; -36,34</t>
+          <t>-96,02; -25,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-76,51; 31,48</t>
+          <t>-78,17; 22,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-88,56; -6,03</t>
+          <t>-88,71; -15,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A10-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,27 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 6,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,38; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 3,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 3,97</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,3%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,71</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-3,5</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 7,17</t>
+          <t>-10,73; 4,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 0,0</t>
+          <t>-14,94; -2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,69</t>
+          <t>-4,43; 4,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,74</t>
+          <t>-7,88; -1,34</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>-39,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>-3,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,58; 322,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-12,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-4,7</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,98</t>
+          <t>-26,35; -4,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,82; -4,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 4,53</t>
+          <t>-8,29; 5,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,34; -2,65</t>
+          <t>-4,09; 14,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,0</t>
+          <t>-12,86; -0,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; -1,32</t>
+          <t>-11,8; 2,17</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-83,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,75%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>63,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>-68,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-53,8%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -22,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 229,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-82,95; 322,03</t>
+          <t>-94,35; 11,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,62; 80,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,89</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,68</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-1,06</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 5,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 12,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,16; -3,75</t>
+          <t>-8,95; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,36; -4,43</t>
+          <t>-8,97; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -0,88</t>
+          <t>-5,35; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 2,25</t>
+          <t>-6,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>63,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-83,26%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-88,33%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-68,09%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-53,8%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1193,29 +1193,29 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 12,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 34,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-93,74; 2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-90,45; 79,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,3</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 0,0</t>
+          <t>-7,41; -0,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 0,0</t>
+          <t>-8,43; -1,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 2,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 1,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 0,0</t>
+          <t>-3,68; 0,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,0</t>
+          <t>-4,32; -0,46</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-67,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-80,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,32%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-44,64%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-65,17%</t>
         </is>
       </c>
     </row>
@@ -1339,17 +1339,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,2; 0,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,53; -26,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,32; 420,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,180 +1359,24 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,16; 19,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,83; -7,41</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-3,66</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-4,34</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 2,71</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 1,43</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-7,51; -0,46</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; -1,55</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 0,22</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; -0,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>13,61%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-26,32%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-67,5%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-80,02%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-44,64%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-65,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-76,02; 528,15</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-91,74; -0,65</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-96,02; -25,94</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-78,17; 22,86</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-88,71; -15,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
